--- a/Multiknapsack/results/fixed_recourse/multicut/M50_N100_T0_a25_reformulation.xlsx
+++ b/Multiknapsack/results/fixed_recourse/multicut/M50_N100_T0_a25_reformulation.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>instance</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>OPTIMAL</t>
+  </si>
+  <si>
+    <t>TIME_LIMIT</t>
   </si>
 </sst>
 </file>
@@ -440,13 +443,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-406.6470855097974</v>
+        <v>-274.9655845122987</v>
       </c>
       <c r="C2">
-        <v>0.0</v>
+        <v>0.09045029071781731</v>
       </c>
       <c r="D2">
-        <v>51.840682793</v>
+        <v>3255.784003795</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -466,16 +469,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-408.47796953931436</v>
+        <v>-273.98162095885345</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>3.372166939227947</v>
       </c>
       <c r="D3">
-        <v>49.489095317</v>
+        <v>3603.986717974</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>5150</v>
@@ -492,16 +495,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-407.3725385859317</v>
+        <v>-274.0896045963642</v>
       </c>
       <c r="C4">
-        <v>0.0</v>
+        <v>3.2927143918754673</v>
       </c>
       <c r="D4">
-        <v>48.420439271</v>
+        <v>3685.793163656</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>5150</v>
@@ -518,16 +521,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-412.28278434469985</v>
+        <v>-276.8685496566217</v>
       </c>
       <c r="C5">
-        <v>1.3787483013908433e-14</v>
+        <v>4.176958512126726</v>
       </c>
       <c r="D5">
-        <v>49.425195241</v>
+        <v>3624.980113498</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>5150</v>
@@ -544,16 +547,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-404.37976411804567</v>
+        <v>-272.16539220117124</v>
       </c>
       <c r="C6">
-        <v>0.0</v>
+        <v>3.6729305785275232</v>
       </c>
       <c r="D6">
-        <v>50.80612893</v>
+        <v>3600.844455122</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>5150</v>
@@ -570,13 +573,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-401.40063242342</v>
+        <v>-268.97221193176233</v>
       </c>
       <c r="C7">
-        <v>4.24838036633925e-14</v>
+        <v>0.014916014855304804</v>
       </c>
       <c r="D7">
-        <v>49.763521165</v>
+        <v>2155.165336923</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -596,16 +599,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-396.3815796199425</v>
+        <v>-265.4281513734784</v>
       </c>
       <c r="C8">
-        <v>1.43405803355686e-14</v>
+        <v>0.2929961414468023</v>
       </c>
       <c r="D8">
-        <v>49.421949739</v>
+        <v>3769.920243309</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8">
         <v>5150</v>
@@ -622,16 +625,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-408.43290615215943</v>
+        <v>-274.2017067884772</v>
       </c>
       <c r="C9">
-        <v>0.0</v>
+        <v>5.69475254826527</v>
       </c>
       <c r="D9">
-        <v>48.079222531</v>
+        <v>3615.965366232</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>5150</v>
@@ -648,16 +651,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-402.82378064604376</v>
+        <v>-271.53604103234676</v>
       </c>
       <c r="C10">
-        <v>1.4111237119523862e-14</v>
+        <v>0.22802400293768618</v>
       </c>
       <c r="D10">
-        <v>50.185561048</v>
+        <v>3851.960560323</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <v>5150</v>
@@ -674,13 +677,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-399.37293214234796</v>
+        <v>-268.7867634966758</v>
       </c>
       <c r="C11">
-        <v>0.0</v>
+        <v>0.09885584246248551</v>
       </c>
       <c r="D11">
-        <v>51.568070908</v>
+        <v>2597.431866718</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
